--- a/오라클/오라클 연습장1.xlsx
+++ b/오라클/오라클 연습장1.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\oracle\오라클\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\GitHub_\oracle\오라클\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C2BE70-7984-432B-AAC6-89664D5D1438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0807D36-631F-4A23-A332-C87F1A2F2929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="1755" windowWidth="14670" windowHeight="11340" activeTab="1" xr2:uid="{A9AD4A66-D03E-4E0B-8914-92A6A7C58F2A}"/>
+    <workbookView xWindow="13530" yWindow="75" windowWidth="15255" windowHeight="15465" firstSheet="2" activeTab="6" xr2:uid="{A9AD4A66-D03E-4E0B-8914-92A6A7C58F2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="기초 지식 및 함수" sheetId="2" r:id="rId2"/>
     <sheet name="내장 함수" sheetId="3" r:id="rId3"/>
     <sheet name="join" sheetId="4" r:id="rId4"/>
     <sheet name="subquery" sheetId="5" r:id="rId5"/>
     <sheet name="group by" sheetId="6" r:id="rId6"/>
+    <sheet name="문제 중심 보기" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t xml:space="preserve">오라클 간단 정리 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,14 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 서브쿼리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 조인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5. 그룹 바이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +201,282 @@
   </si>
   <si>
     <t>,nvl2(emp_no, '있음', '없음')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★ join의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inner join : 조인 조건에 맞는 행만 포함하는 조인. 대부분의 조인이 여기에 포함되며 내부 조인이라 하기도 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outer join : 조인 조건에 만족하지 못한 행도 출력하는 조인. 상대적으로 어려우나 출제빈도가 있는 편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self join : 1개의 테이블을 2개 이상으로 보고 하는 조인. 상대적으로 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross join : 2개 이상의 테이블에서 각각의 행이 모두 연결되는 조인. 연결 조건이 생략된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★ 형식에 따른 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클 조인 : 오라클에서만 사용되는 조인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 예시 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee.emp_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"직원번호"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, employee.emp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"직원명"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, dept.dep_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"부서명"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee, dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee.dep_no=dept.dep_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.emp_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, e.emp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, d.dep_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee e, dept d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.dep_no=d.dep_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 컬럼 / from 불러올 테이블 / where 데이터=데이터 구문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클 조인에서 where 은 횡으로 붙이는 작업에 필요함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개 이상의 테이블에서 서로 연관성 있는 컬럼을 복사하여 횡으로 붙이는 작업을 함으로서 궁극적으로 이것을 참조하는 유저가 편의성을 느끼게 하는 것에 목적이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANSI 조인 : 모든 데이터베이스 업체에서 공용으로 사용되는 조인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee e inner join dept d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from 절에서 불러오는 두개의 테이블 사이에 inner join 을 붙인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;주의&gt; join할 수 있는 테이블의 개수는 몇 개이든 상관없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;주의&gt; 오라클 조인에서 where절에 조인 조건과 행을 골라내는 조건이 같이 올 수 있으며, and로 이어 쓸 수 있다.</t>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where 대신 on을 사용하며 추가적으로 where절을 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;주의&gt; ANSI 조인에서 ON절에 조인 조건을 쓰고 WHERE절에 행을 골라내는 조건을 사용함다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;주의&gt; ANSI 조인의 경우 3개 이상의 테이블부터 정보양이 비데해져서 어려워지게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리 목적 : 핵심 구문이 2,3개 이상에 찾는 테이블 및 컬럼이 많고 추가예제가 2,3개 이상인 고 난이도 문제에서의 풀이과정을 통해 풀이과정 내에서 사용되어진 함수 기법들을 정리하고 되새겨보는 시간을 가지고자 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 조인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 서브쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 문제 중심 풀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;주의&gt; 문제의 조건에서 '같다'라는 표현 나올 시 - equi조인 사용./ 안 왔을 때 non-equi조인./ 한쪽이 다 나와라 이런거 아니면 inner hoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼 뒤에 (+)붙이는 행위에 대한 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex. c.emp_no = e.emp_no(+) 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+)가 붙은 컬럼의 반대편 컬럼의 소속 테이블 행은 모두 나오고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+)가 붙은 e.emp_no 컬럼의 소속 테이블 행은 조건에 맞는 게 없으면 null이라도 달고 나오라는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.emp_no = e.emp_no(+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;주의&gt; outer 조인에서 where에 (+)가 붙은 놈음? -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where 절에 다나오는 메인 테이블이 아닌 모든 컬럼에 붙는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심지어 행을 골라내는 조건의 컬럼도 여기에 속한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subquery에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select, insult, update, delete 구문 안에 들어 있는 또 다른 select문을 말한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join과 상호관계가 있으며 &lt;from절에 나오는 select&gt;는 서브쿼리가 아니라 inline(인라인뷰)라고 말함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브쿼리 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where 절, select 절에서 데이터에 사용됨.(연산자와 함께 사용됨)</t>
+  </si>
+  <si>
+    <t>select절에서 출력 컬럼명이 됨.</t>
+  </si>
+  <si>
+    <t>결과물을 테이블로 보고 바깥 쿼리가 진행된다.(가상테이블)</t>
+  </si>
+  <si>
+    <t>문제 예제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  employee 테이블에서 직원번호, 직원명, 주민번호, 다가올생일날( 년-월-일 ), 생일까지 남은 일수를 검색하면?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, emp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, jumin_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, case when</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_date( to_char( sysdate, 'YYYY') || substr(jumin_num,3,4), YYYYMMDD')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>then</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B2CDB4-913F-468A-9F01-078963F48D39}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,7 +864,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -605,17 +874,22 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E219907A-52E8-4871-8E11-F87B3734252D}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -637,208 +911,208 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -862,25 +1136,361 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5C2994-A122-4567-8FC9-CF2F85FB063A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF45E22F-C592-4F48-84D6-C61F960FAE99}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -897,4 +1507,80 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7B020F-CCD4-495C-AC3E-0C7BD83AF27C}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/오라클/오라클 연습장1.xlsx
+++ b/오라클/오라클 연습장1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\GitHub_\oracle\오라클\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0807D36-631F-4A23-A332-C87F1A2F2929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1103EA47-65D5-44C9-A1AE-43347A1D7CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13530" yWindow="75" windowWidth="15255" windowHeight="15465" firstSheet="2" activeTab="6" xr2:uid="{A9AD4A66-D03E-4E0B-8914-92A6A7C58F2A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
   <si>
     <t xml:space="preserve">오라클 간단 정리 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,39 +444,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.  employee 테이블에서 직원번호, 직원명, 주민번호, 다가올생일날( 년-월-일 ), 생일까지 남은 일수를 검색하면?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>, emp_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>, jumin_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>, case when</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_date( to_char( sysdate, 'YYYY') || substr(jumin_num,3,4), YYYYMMDD')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>then</t>
+    <t>1. 직원명, 직원직급, 소속부서명, 연봉등급 출력 &lt;연봉등급 오름차순, 직급 높은순서 오름차순, 나이 높은순서 내림차순 유지&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클 조인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.emp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, e.jikup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, d.dep_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, s.sal_grade_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee e, dept d, salary s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.dep_no=d.dep_no and (e.salary&gt;=s.min_salary and e.salary&lt;=s.max_salary)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, decode(e.jikup, '사장', 1, '부장', 2, '과장', 3, '대리', 4, '주임', 5, 6) asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.sal_grade_no asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, case when substr( e.jumin_num,7,1) in ('1', '2') then '19' else '20' end || substr(e.jumin_num,1,6)) asc;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1511,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7B020F-CCD4-495C-AC3E-0C7BD83AF27C}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1534,53 +1558,79 @@
         <v>104</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>109</v>
+      <c r="A11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>111</v>
+      <c r="A13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/오라클/오라클 연습장1.xlsx
+++ b/오라클/오라클 연습장1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\GitHub_\oracle\오라클\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\oracle\오라클\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1103EA47-65D5-44C9-A1AE-43347A1D7CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8FC995-9043-4B87-ACB7-59B2AEF20111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="75" windowWidth="15255" windowHeight="15465" firstSheet="2" activeTab="6" xr2:uid="{A9AD4A66-D03E-4E0B-8914-92A6A7C58F2A}"/>
+    <workbookView xWindow="13965" yWindow="1755" windowWidth="14670" windowHeight="11340" firstSheet="1" activeTab="1" xr2:uid="{A9AD4A66-D03E-4E0B-8914-92A6A7C58F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
   <si>
     <t xml:space="preserve">오라클 간단 정리 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,34 @@
   </si>
   <si>
     <t>, case when substr( e.jumin_num,7,1) in ('1', '2') then '19' else '20' end || substr(e.jumin_num,1,6)) asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※case ~~~ end 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case 컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when 데이터1 then 리턴값1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when 데이터2 then 리턴값2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else 리턴값n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E219907A-52E8-4871-8E11-F87B3734252D}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,9 +1167,45 @@
         <v>38</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1537,7 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7B020F-CCD4-495C-AC3E-0C7BD83AF27C}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/오라클/오라클 연습장1.xlsx
+++ b/오라클/오라클 연습장1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\oracle\오라클\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현준\Desktop\GitHub\oracle\오라클\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8FC995-9043-4B87-ACB7-59B2AEF20111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C41A6-2F20-4CC9-8005-B3A0A607E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="1755" windowWidth="14670" windowHeight="11340" firstSheet="1" activeTab="1" xr2:uid="{A9AD4A66-D03E-4E0B-8914-92A6A7C58F2A}"/>
+    <workbookView xWindow="4845" yWindow="1770" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{A9AD4A66-D03E-4E0B-8914-92A6A7C58F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="182">
   <si>
     <t xml:space="preserve">오라클 간단 정리 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,198 @@
   <si>
     <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"직원명"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"직원직급"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"소속부서명"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"연봉등급"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">★ where 절에 and 사용 가능. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">★ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★ 출력해야 할 컬럼에 연봉 관련 컬럼이 있을 시 where절에 부등호 서식이 나오게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★ 고객번호, 고객명, 담당직원번호, 담당직원명, 담당지원소속부서명, 담당직원연봉등급, 담당직원직속상관명, 담당직원직속상관직급, 직속상관연봉등급 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단, 고객은 다 나와야 하고 null은 없음으로 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클 조인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.cus_no</t>
+  </si>
+  <si>
+    <t>, c.cus_name</t>
+  </si>
+  <si>
+    <t>, nvl(to_char(e1.emp_no), '없음')</t>
+  </si>
+  <si>
+    <t>, nvl(e1.emp_name, '없음')</t>
+  </si>
+  <si>
+    <t>, nvl(d.dep_name, '없음')</t>
+  </si>
+  <si>
+    <t>, nvl(to_char(s1.sal_grade_no), '없음')</t>
+  </si>
+  <si>
+    <t>, nvl(e2.emp_name, '없음')</t>
+  </si>
+  <si>
+    <t>, nvl(e2.jikup, '없음')</t>
+  </si>
+  <si>
+    <t>, nvl(to_char(s2.sal_grade_no), '없음')</t>
+  </si>
+  <si>
+    <t>from customer c, employee e1, dept d, salary_grade s1, employee e2, salary_grade s2</t>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.emp_no=e1.emp_no(+)</t>
+  </si>
+  <si>
+    <t>and d.dep_no(+)=e1.dep_no</t>
+  </si>
+  <si>
+    <t>and e1.salary between s1.min_salary(+) and s1.max_salary(+)</t>
+  </si>
+  <si>
+    <t>and e2.salary between s2.min_salary(+) and s2.max_salary(+)</t>
+  </si>
+  <si>
+    <t>and e1.mgr_emp_no=e2.emp_no(+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order by c.cus_no asc;</t>
+  </si>
+  <si>
+    <t>★ nvl 구문 (컬럼명, null값 대체 데이터) 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★ 찾고자 하는 데이터값을 다 나오게 해야 할때 where절에 참조하는 컬럼과 참조되는 컬럼 중에서 후자에 (+)기호를 붙임으로 전부 나오게 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">★union </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼 데이터를 종으로 붙여 출력할 때 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼 자료형이 같아야 붙여 줄 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건에 따라 이너 조인과 아우터 조인 결과가 같을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복된 행 제거 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(union all - 중복 행 허용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★사용예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select emp_name, phone from employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">union </t>
+  </si>
+  <si>
+    <t>select cus_name, tel_num from customer</t>
+  </si>
+  <si>
+    <t>직원명, 직원전화번호와 고객명, 고객전화번호 를 종으로 붙여 출력. 단, 중복하지 말것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>union all</t>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+  </si>
+  <si>
+    <t>직원명</t>
+  </si>
+  <si>
+    <t>, jikup</t>
+  </si>
+  <si>
+    <t>직급</t>
+  </si>
+  <si>
+    <t>, salary</t>
+  </si>
+  <si>
+    <t>연봉</t>
+  </si>
+  <si>
+    <t>, floor(salary/(select sum(salary) from employee) * 100) ||'%' "연봉비율"</t>
+  </si>
+  <si>
+    <t>전체연봉에서 차지하는 비율</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>order by</t>
+  </si>
+  <si>
+    <t>floor(salary/(select sum(salary) from employee) * 100) desc</t>
   </si>
 </sst>
 </file>
@@ -953,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E219907A-52E8-4871-8E11-F87B3734252D}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1200,6 +1392,130 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="F59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="I63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="I64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>174</v>
+      </c>
+      <c r="I65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>176</v>
+      </c>
+      <c r="I66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1599,97 +1915,239 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7B020F-CCD4-495C-AC3E-0C7BD83AF27C}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/오라클/오라클 연습장1.xlsx
+++ b/오라클/오라클 연습장1.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현준\Desktop\GitHub\oracle\오라클\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\GitHub_\oracle\오라클\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C41A6-2F20-4CC9-8005-B3A0A607E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FCBF6B-2426-4F71-9F68-1B44D3FF2D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="1770" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{A9AD4A66-D03E-4E0B-8914-92A6A7C58F2A}"/>
+    <workbookView xWindow="13125" yWindow="390" windowWidth="15255" windowHeight="15465" activeTab="3" xr2:uid="{A9AD4A66-D03E-4E0B-8914-92A6A7C58F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="기초 지식 및 함수" sheetId="2" r:id="rId2"/>
     <sheet name="내장 함수" sheetId="3" r:id="rId3"/>
     <sheet name="join" sheetId="4" r:id="rId4"/>
-    <sheet name="subquery" sheetId="5" r:id="rId5"/>
-    <sheet name="group by" sheetId="6" r:id="rId6"/>
+    <sheet name="group by" sheetId="6" r:id="rId5"/>
+    <sheet name="subquery" sheetId="5" r:id="rId6"/>
     <sheet name="문제 중심 보기" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="207">
   <si>
     <t xml:space="preserve">오라클 간단 정리 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,10 +560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>★ 고객번호, 고객명, 담당직원번호, 담당직원명, 담당지원소속부서명, 담당직원연봉등급, 담당직원직속상관명, 담당직원직속상관직급, 직속상관연봉등급 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단, 고객은 다 나와야 하고 null은 없음으로 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,6 +718,87 @@
   </si>
   <si>
     <t>floor(salary/(select sum(salary) from employee) * 100) desc</t>
+  </si>
+  <si>
+    <t>select count(*) from (</t>
+  </si>
+  <si>
+    <t>select sysdate "XDAY" from dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">union select sysdate+1 from dual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">union select sysdate+2 from dual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">union select sysdate+3 from dual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">union select sysdate+4 from dual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">union select sysdate+5 from dual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">union select sysdate+6 from dual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">union select sysdate+7 from dual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">union select sysdate+8 from dual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">union select sysdate+9 from dual </t>
+  </si>
+  <si>
+    <t>union select sysdate+10 from dual</t>
+  </si>
+  <si>
+    <t>) d</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>to_char( d.xday, 'dy', 'nls_date_language = korean')!='토'</t>
+  </si>
+  <si>
+    <t>and to_char( d.xday, 'dy', 'nls_date_language = korean')!='일'</t>
+  </si>
+  <si>
+    <t>and to_char( d.xday, 'dy', 'nls_date_language = korean')!='월'</t>
+  </si>
+  <si>
+    <t>2 고객번호, 고객명, 담당직원번호, 담당직원명, 담당지원소속부서명, 담당직원연봉등급, 담당직원직속상관명, 담당직원직속상관직급, 직속상관연봉등급 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 오늘부터 10일 이후까지 날짜 중에 토요일, 일요일, 월요일을 제외한 날의 개수를 구하면?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">간략한 작성 예시 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from ( select 컬럼 "대문자 별칭 컬럼" from dual</t>
+  </si>
+  <si>
+    <t>union select 컬럼+1 from dual(가상테이블)</t>
+  </si>
+  <si>
+    <t>union select 컬럼+2 from dual(가상테이블)</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>union select 컬럼+n from dual(가상테이블)</t>
+  </si>
+  <si>
+    <t>요구되는 함수 구문 식 and and ~~</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E219907A-52E8-4871-8E11-F87B3734252D}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1396,126 +1473,126 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" t="s">
         <v>161</v>
-      </c>
-      <c r="D54" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I63" t="s">
         <v>170</v>
-      </c>
-      <c r="I63" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
+        <v>171</v>
+      </c>
+      <c r="I64" t="s">
         <v>172</v>
-      </c>
-      <c r="I64" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65" t="s">
         <v>174</v>
-      </c>
-      <c r="I65" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
+        <v>175</v>
+      </c>
+      <c r="I66" t="s">
         <v>176</v>
-      </c>
-      <c r="I66" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5C2994-A122-4567-8FC9-CF2F85FB063A}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -1850,6 +1927,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FC82C-15A5-47E5-84B8-9184934AAA3A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF45E22F-C592-4F48-84D6-C61F960FAE99}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -1900,25 +1990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FC82C-15A5-47E5-84B8-9184934AAA3A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7B020F-CCD4-495C-AC3E-0C7BD83AF27C}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2037,117 +2114,250 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>156</v>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
